--- a/biology/Zoologie/Brachycère_muriqué/Brachycère_muriqué.xlsx
+++ b/biology/Zoologie/Brachycère_muriqué/Brachycère_muriqué.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brachyc%C3%A8re_muriqu%C3%A9</t>
+          <t>Brachycère_muriqué</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachycerus muricatus
 Le Brachycère muriqué, Brachycerus muricatus, est une espèce de coléoptères de la famille des Brachycéridés.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brachyc%C3%A8re_muriqu%C3%A9</t>
+          <t>Brachycère_muriqué</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mesurant de 7 à 12 mm de long, ce coléoptère possède des bosses et des creux recouvrant ses élytres soudés, créant des reliefs surprenants. Les antennes possèdent sept articles, elles sont courtes et non coudées.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brachyc%C3%A8re_muriqu%C3%A9</t>
+          <t>Brachycère_muriqué</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente dans six départements en France[Lesquels ?], sur la côte méditerranéenne[2]. Les larves vivent dans le sol.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente dans six départements en France[Lesquels ?], sur la côte méditerranéenne. Les larves vivent dans le sol.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Brachyc%C3%A8re_muriqu%C3%A9</t>
+          <t>Brachycère_muriqué</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'instar de nombreux insectes, il peut réaliser un comportement de catalepsie[3] très long pour faire le mort et échapper à ses prédateurs ou à l'homme s'il se sent en danger.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'instar de nombreux insectes, il peut réaliser un comportement de catalepsie très long pour faire le mort et échapper à ses prédateurs ou à l'homme s'il se sent en danger.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Brachyc%C3%A8re_muriqu%C3%A9</t>
+          <t>Brachycère_muriqué</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les larves vivent dans la terre, plus particulièrement dans les bulbes de Liliacées méridionales dont elles se nourrissent.
 </t>
